--- a/MapData/2024-12-05/PlaceInfo.xlsx
+++ b/MapData/2024-12-05/PlaceInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Haruki\Projects\WEB\SchoolMap\MapData\2024-11-28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Haruki\Projects\WEB\SchoolMap\MapData\2024-12-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C644707-7CCD-4CAA-8890-7F21EE8132D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F013063-0B6F-48B8-B502-8A250C7EAD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="0" windowWidth="12165" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6450" yWindow="3015" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlaceInfo" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="271">
   <si>
     <t>id(unique)</t>
   </si>
@@ -57,12 +57,6 @@
   </si>
   <si>
     <t>広い校庭</t>
-  </si>
-  <si>
-    <t>grand.png</t>
-  </si>
-  <si>
-    <t>grandsub.png</t>
   </si>
   <si>
     <t>1A</t>
@@ -871,6 +865,48 @@
     <rPh sb="3" eb="4">
       <t>モン</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>fountain-87KPE1Vq.webp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>gate_east_0-qAB23K19.webp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>gate_nishi_hall_1-7mVe6x20.webp</t>
+  </si>
+  <si>
+    <t>gate_north_0-1ZftrcP4.webp</t>
+  </si>
+  <si>
+    <t>gate_north_0-AHGmB7D0.webp</t>
+  </si>
+  <si>
+    <t>gate_west_1-6G2EaBq6.webp</t>
+  </si>
+  <si>
+    <t>gate_west_2-39A51R8u.webp</t>
+  </si>
+  <si>
+    <t>gate_west_2-NHvb5xm3.webp</t>
+  </si>
+  <si>
+    <t>pilotis-kZRaRnHs.webp</t>
+  </si>
+  <si>
+    <t>straight_course-k0DNpn6R.webp</t>
+  </si>
+  <si>
+    <t>gate_nishi_hall_0-7BfkEqJ3.webp</t>
+  </si>
+  <si>
+    <t>gate_nishi_hall_0-aCc5V363.webp</t>
+  </si>
+  <si>
+    <t>gate_east_0-JqRhs34H.webp</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1847,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1880,16 +1916,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1897,16 +1933,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1914,16 +1950,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1931,16 +1967,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1948,16 +1984,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1965,16 +2001,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1982,16 +2018,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1999,16 +2035,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2025,27 +2061,23 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2054,13 +2086,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2069,13 +2101,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2084,13 +2116,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2099,13 +2131,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2114,13 +2146,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2129,28 +2161,30 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2159,13 +2193,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2174,13 +2208,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2189,13 +2223,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2204,13 +2238,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2219,13 +2253,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2234,13 +2268,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2249,13 +2283,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2264,13 +2298,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2279,13 +2313,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2294,13 +2328,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2309,13 +2343,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2324,28 +2358,30 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2354,13 +2390,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2369,128 +2405,150 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2499,13 +2557,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2514,13 +2572,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2529,13 +2587,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2544,13 +2602,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2559,13 +2617,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2574,13 +2632,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2589,13 +2647,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2604,13 +2662,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2619,13 +2677,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2634,13 +2692,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2649,13 +2707,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2664,13 +2722,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2679,13 +2737,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2694,13 +2752,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2709,13 +2767,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2724,13 +2782,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2739,16 +2797,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2756,16 +2814,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2773,16 +2831,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2790,16 +2848,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2807,16 +2865,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2824,16 +2882,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B62" s="1">
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2841,16 +2899,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2858,16 +2916,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2875,13 +2933,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2890,13 +2948,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2905,13 +2963,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2920,13 +2978,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2935,13 +2993,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B69" s="1">
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2950,13 +3008,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B70" s="1">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2965,13 +3023,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B71" s="1">
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2980,13 +3038,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2995,13 +3053,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B73" s="1">
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3010,13 +3068,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B74" s="1">
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3025,13 +3083,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B75" s="1">
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3040,13 +3098,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B76" s="1">
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3055,13 +3113,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B77" s="1">
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3070,13 +3128,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B78" s="1">
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3085,13 +3143,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3100,13 +3158,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3115,13 +3173,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3130,13 +3188,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B82" s="1">
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3145,13 +3203,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B83" s="1">
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3160,13 +3218,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B84" s="1">
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3175,13 +3233,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B85" s="1">
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3190,13 +3248,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B86" s="1">
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3205,13 +3263,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B87" s="1">
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3220,13 +3278,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B88" s="1">
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3235,13 +3293,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B89" s="1">
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3250,13 +3308,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B90" s="1">
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3265,13 +3323,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3280,13 +3338,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3295,13 +3353,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B93" s="1">
         <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3310,16 +3368,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B94" s="1">
         <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -3327,16 +3385,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B95" s="1">
         <v>2</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -3344,16 +3402,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B96" s="1">
         <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -3361,16 +3419,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B97" s="1">
         <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -3378,16 +3436,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B98" s="1">
         <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -3395,16 +3453,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B99" s="1">
         <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -3412,16 +3470,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B100" s="1">
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -3429,16 +3487,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B101" s="1">
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -3446,13 +3504,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B102" s="1">
         <v>2</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3461,13 +3519,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B103" s="1">
         <v>2</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3476,13 +3534,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B104" s="1">
         <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3491,13 +3549,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3506,13 +3564,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B106" s="1">
         <v>2</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3521,13 +3579,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B107" s="1">
         <v>2</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3536,13 +3594,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B108" s="1">
         <v>2</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3551,13 +3609,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B109" s="1">
         <v>2</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3566,13 +3624,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B110" s="1">
         <v>2</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3581,13 +3639,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B111" s="1">
         <v>2</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3596,13 +3654,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B112" s="1">
         <v>2</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3611,13 +3669,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B113" s="1">
         <v>2</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3626,13 +3684,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B114" s="1">
         <v>2</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3641,13 +3699,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B115" s="1">
         <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3656,13 +3714,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B116" s="1">
         <v>2</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -3671,13 +3729,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B117" s="1">
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3686,13 +3744,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B118" s="1">
         <v>2</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3701,30 +3759,30 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B119" s="1">
         <v>2</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B120" s="1">
         <v>2</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>

--- a/MapData/2024-12-05/PlaceInfo.xlsx
+++ b/MapData/2024-12-05/PlaceInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Haruki\Projects\WEB\SchoolMap\MapData\2024-12-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F013063-0B6F-48B8-B502-8A250C7EAD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD35136C-E1D8-4580-8D5D-C44F7319FB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="3015" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="3090" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlaceInfo" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="279">
   <si>
     <t>id(unique)</t>
   </si>
@@ -56,9 +56,6 @@
     <t>校庭</t>
   </si>
   <si>
-    <t>広い校庭</t>
-  </si>
-  <si>
     <t>1A</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
     <t>グランド グラウンド トラック</t>
   </si>
   <si>
-    <t>tennis_court</t>
-  </si>
-  <si>
     <t>handball_court</t>
   </si>
   <si>
@@ -327,9 +321,6 @@
   </si>
   <si>
     <t>トレーニングルーム</t>
-  </si>
-  <si>
-    <t>clubroom_building_1</t>
   </si>
   <si>
     <t>clubrooms</t>
@@ -908,6 +899,42 @@
   <si>
     <t>gate_east_0-JqRhs34H.webp</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>clubroom_building_1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>tennis_court</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>clubroom_building_0_1f-qAB23K19.webp</t>
+  </si>
+  <si>
+    <t>clubroom_building_1-39A51R8u.webp</t>
+  </si>
+  <si>
+    <t>gate_west_0-7BfkEqJ3.webp</t>
+  </si>
+  <si>
+    <t>gate_west_0-aCc5V363.webp</t>
+  </si>
+  <si>
+    <t>grand-kZRaRnHs.webp</t>
+  </si>
+  <si>
+    <t>handball_court-7mVe6x20.webp</t>
+  </si>
+  <si>
+    <t>tennis_court-1ZftrcP4.webp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>tennis_court-AHGmB7D0.webp</t>
+  </si>
+  <si>
+    <t>tennis_court-6G2EaBq6.webp</t>
   </si>
 </sst>
 </file>
@@ -1881,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1895,7 +1922,7 @@
     <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1914,143 +1941,143 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2061,98 +2088,107 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F11" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2161,30 +2197,30 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2193,13 +2229,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2208,13 +2244,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2223,13 +2259,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2238,13 +2274,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2253,13 +2289,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2268,13 +2304,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2283,13 +2319,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2298,13 +2334,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2313,13 +2349,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2328,60 +2364,64 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>268</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2390,165 +2430,164 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>253</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G36" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="F38" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2557,13 +2596,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2572,13 +2611,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2587,13 +2626,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2602,13 +2641,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2617,13 +2656,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2632,13 +2671,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2647,13 +2686,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2662,13 +2701,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2677,13 +2716,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2692,13 +2731,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2707,13 +2746,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2722,13 +2761,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B52" s="1">
-        <v>0</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2737,13 +2776,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2752,13 +2791,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B54" s="1">
-        <v>0</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2767,13 +2806,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2782,13 +2821,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2797,16 +2836,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2814,16 +2853,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2831,16 +2870,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2848,16 +2887,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2865,16 +2904,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -2882,16 +2921,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B62" s="1">
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2899,16 +2938,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2916,16 +2955,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2933,13 +2972,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2948,13 +2987,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2963,13 +3002,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2978,13 +3017,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2993,13 +3032,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B69" s="1">
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3008,13 +3047,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B70" s="1">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3023,13 +3062,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B71" s="1">
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3038,13 +3077,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3053,13 +3092,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B73" s="1">
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3068,13 +3107,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B74" s="1">
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3083,13 +3122,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B75" s="1">
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3098,13 +3137,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B76" s="1">
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3113,13 +3152,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B77" s="1">
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3128,13 +3167,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B78" s="1">
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3143,13 +3182,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3158,13 +3197,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3173,13 +3212,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3188,13 +3227,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B82" s="1">
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3203,13 +3242,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B83" s="1">
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3218,13 +3257,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B84" s="1">
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3233,13 +3272,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B85" s="1">
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3248,13 +3287,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B86" s="1">
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3263,13 +3302,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B87" s="1">
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3278,13 +3317,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B88" s="1">
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3293,13 +3332,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B89" s="1">
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3308,13 +3347,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B90" s="1">
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3323,13 +3362,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3338,13 +3377,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3353,13 +3392,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B93" s="1">
         <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3368,16 +3407,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B94" s="1">
         <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -3385,16 +3424,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B95" s="1">
         <v>2</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -3402,16 +3441,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B96" s="1">
         <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -3419,16 +3458,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B97" s="1">
         <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -3436,16 +3475,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B98" s="1">
         <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -3453,16 +3492,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B99" s="1">
         <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -3470,16 +3509,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B100" s="1">
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -3487,16 +3526,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B101" s="1">
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -3504,13 +3543,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B102" s="1">
         <v>2</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3519,13 +3558,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B103" s="1">
         <v>2</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3534,13 +3573,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B104" s="1">
         <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3549,13 +3588,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3564,13 +3603,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B106" s="1">
         <v>2</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3579,13 +3618,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B107" s="1">
         <v>2</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3594,13 +3633,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B108" s="1">
         <v>2</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3609,13 +3648,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B109" s="1">
         <v>2</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3624,13 +3663,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B110" s="1">
         <v>2</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3639,13 +3678,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B111" s="1">
         <v>2</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3654,13 +3693,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B112" s="1">
         <v>2</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3669,13 +3708,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B113" s="1">
         <v>2</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3684,13 +3723,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B114" s="1">
         <v>2</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3699,13 +3738,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B115" s="1">
         <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3714,13 +3753,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B116" s="1">
         <v>2</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -3729,13 +3768,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B117" s="1">
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3744,13 +3783,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B118" s="1">
         <v>2</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3759,30 +3798,30 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B119" s="1">
         <v>2</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B120" s="1">
         <v>2</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>

--- a/MapData/2024-12-05/PlaceInfo.xlsx
+++ b/MapData/2024-12-05/PlaceInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Haruki\Projects\WEB\SchoolMap\MapData\2024-12-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD35136C-E1D8-4580-8D5D-C44F7319FB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19D6028-948E-4F6C-A46D-21B16851D08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5625" yWindow="3090" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="291">
   <si>
     <t>id(unique)</t>
   </si>
@@ -245,21 +245,12 @@
     <t>視聴覚ホール</t>
   </si>
   <si>
-    <t>nishi_hall_1f</t>
-  </si>
-  <si>
     <t>西高会館</t>
   </si>
   <si>
-    <t>gym_1f</t>
-  </si>
-  <si>
     <t>体育館</t>
   </si>
   <si>
-    <t>martial_arts_field_1f</t>
-  </si>
-  <si>
     <t>武道場</t>
   </si>
   <si>
@@ -368,9 +359,6 @@
     <t>office_warehouse</t>
   </si>
   <si>
-    <t>clubroom_building_0_1f</t>
-  </si>
-  <si>
     <t>clubroom_building_0_2f</t>
   </si>
   <si>
@@ -687,9 +675,6 @@
   </si>
   <si>
     <t>PTA印刷室</t>
-  </si>
-  <si>
-    <t>第一講義準備室</t>
   </si>
   <si>
     <t>pta_printing_room</t>
@@ -825,7 +810,115 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>普段は閉門されている</t>
+    <t>東門</t>
+    <rPh sb="0" eb="2">
+      <t>ヒガシモン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>西門(校庭)</t>
+    <rPh sb="3" eb="5">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>fountain-87KPE1Vq.webp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>gate_east_0-qAB23K19.webp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>gate_nishi_hall_1-7mVe6x20.webp</t>
+  </si>
+  <si>
+    <t>gate_north_0-1ZftrcP4.webp</t>
+  </si>
+  <si>
+    <t>gate_north_0-AHGmB7D0.webp</t>
+  </si>
+  <si>
+    <t>gate_west_1-6G2EaBq6.webp</t>
+  </si>
+  <si>
+    <t>gate_west_2-39A51R8u.webp</t>
+  </si>
+  <si>
+    <t>gate_west_2-NHvb5xm3.webp</t>
+  </si>
+  <si>
+    <t>pilotis-kZRaRnHs.webp</t>
+  </si>
+  <si>
+    <t>straight_course-k0DNpn6R.webp</t>
+  </si>
+  <si>
+    <t>gate_nishi_hall_0-7BfkEqJ3.webp</t>
+  </si>
+  <si>
+    <t>gate_nishi_hall_0-aCc5V363.webp</t>
+  </si>
+  <si>
+    <t>gate_east_0-JqRhs34H.webp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>clubroom_building_1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>tennis_court</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>clubroom_building_0_1f-qAB23K19.webp</t>
+  </si>
+  <si>
+    <t>clubroom_building_1-39A51R8u.webp</t>
+  </si>
+  <si>
+    <t>gate_west_0-7BfkEqJ3.webp</t>
+  </si>
+  <si>
+    <t>gate_west_0-aCc5V363.webp</t>
+  </si>
+  <si>
+    <t>grand-kZRaRnHs.webp</t>
+  </si>
+  <si>
+    <t>handball_court-7mVe6x20.webp</t>
+  </si>
+  <si>
+    <t>tennis_court-1ZftrcP4.webp</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>tennis_court-AHGmB7D0.webp</t>
+  </si>
+  <si>
+    <t>tennis_court-6G2EaBq6.webp</t>
+  </si>
+  <si>
+    <t>[こちらの西門](gate_west_0)の方が多く利用されている。</t>
+    <rPh sb="5" eb="7">
+      <t>ニシモン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>普段は閉門されている。</t>
     <rPh sb="0" eb="2">
       <t>フダン</t>
     </rPh>
@@ -835,106 +928,114 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>東門</t>
+    <t>第一講義準備室。</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[2階](audiovisual_hall_2f)</t>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>nishi_hall_1f</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>gym_1f</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[2階](gym_2f)</t>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>clubroom_building_0_1f</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[2階](clubroom_building_0_2f)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>martial_arts_field_1f</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[2階](martial_arts_field_2f)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[1階](clubroom_building_0_1f)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[1階](audiovisual_hall_1f)</t>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[1階](gym_1f)</t>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[1階](martial_arts_field_1f)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[1階](nishi_hall_1f)/n[2階](nishi_hall_2f)</t>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[1階](nishi_hall_1f)/n[3階](nishi_hall_3f)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[2階](nishi_hall_2f)/n[3階](nishi_hall_3f)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>西高のシンボルともいえる**愛の泉**。/n西高には愛の泉に関する様々な噂がある。</t>
     <rPh sb="0" eb="2">
-      <t>ヒガシモン</t>
+      <t>ニシコウ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>西門(校庭)</t>
-    <rPh sb="3" eb="5">
-      <t>コウテイ</t>
+    <rPh sb="14" eb="15">
+      <t>アイ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>北側の門</t>
-    <rPh sb="0" eb="2">
-      <t>キタガワ</t>
+    <rPh sb="16" eb="17">
+      <t>イズミ</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>モン</t>
+    <rPh sb="22" eb="24">
+      <t>ニシコウ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>fountain-87KPE1Vq.webp</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>gate_east_0-qAB23K19.webp</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>gate_nishi_hall_1-7mVe6x20.webp</t>
-  </si>
-  <si>
-    <t>gate_north_0-1ZftrcP4.webp</t>
-  </si>
-  <si>
-    <t>gate_north_0-AHGmB7D0.webp</t>
-  </si>
-  <si>
-    <t>gate_west_1-6G2EaBq6.webp</t>
-  </si>
-  <si>
-    <t>gate_west_2-39A51R8u.webp</t>
-  </si>
-  <si>
-    <t>gate_west_2-NHvb5xm3.webp</t>
-  </si>
-  <si>
-    <t>pilotis-kZRaRnHs.webp</t>
-  </si>
-  <si>
-    <t>straight_course-k0DNpn6R.webp</t>
-  </si>
-  <si>
-    <t>gate_nishi_hall_0-7BfkEqJ3.webp</t>
-  </si>
-  <si>
-    <t>gate_nishi_hall_0-aCc5V363.webp</t>
-  </si>
-  <si>
-    <t>gate_east_0-JqRhs34H.webp</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>clubroom_building_1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>tennis_court</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>clubroom_building_0_1f-qAB23K19.webp</t>
-  </si>
-  <si>
-    <t>clubroom_building_1-39A51R8u.webp</t>
-  </si>
-  <si>
-    <t>gate_west_0-7BfkEqJ3.webp</t>
-  </si>
-  <si>
-    <t>gate_west_0-aCc5V363.webp</t>
-  </si>
-  <si>
-    <t>grand-kZRaRnHs.webp</t>
-  </si>
-  <si>
-    <t>handball_court-7mVe6x20.webp</t>
-  </si>
-  <si>
-    <t>tennis_court-1ZftrcP4.webp</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>tennis_court-AHGmB7D0.webp</t>
-  </si>
-  <si>
-    <t>tennis_court-6G2EaBq6.webp</t>
+    <rPh sb="26" eb="27">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イズミ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ウワサ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1910,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1943,7 +2044,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1960,7 +2061,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -1977,7 +2078,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1994,7 +2095,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -2011,7 +2112,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -2028,7 +2129,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -2045,7 +2146,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -2062,7 +2163,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -2088,17 +2189,17 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -2109,18 +2210,18 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H11" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2131,7 +2232,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -2146,52 +2247,60 @@
         <v>69</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>277</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
@@ -2206,21 +2315,23 @@
         <v>63</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2229,13 +2340,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2244,13 +2355,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2259,13 +2370,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2274,13 +2385,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2289,13 +2400,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2304,13 +2415,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2319,13 +2430,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2334,13 +2445,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2349,13 +2460,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2364,64 +2475,66 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>279</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2430,152 +2543,151 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>254</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="G36" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -2686,13 +2798,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2731,13 +2843,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2746,7 +2858,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -2776,13 +2888,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2806,13 +2918,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2821,13 +2933,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2836,7 +2948,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
@@ -2853,7 +2965,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
@@ -2870,7 +2982,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
@@ -2887,7 +2999,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
@@ -2904,7 +3016,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
@@ -2921,7 +3033,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B62" s="1">
         <v>1</v>
@@ -2938,7 +3050,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
@@ -2955,7 +3067,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -2972,22 +3084,24 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
@@ -2996,64 +3110,72 @@
         <v>69</v>
       </c>
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B69" s="1">
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B70" s="1">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3062,13 +3184,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B71" s="1">
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3077,13 +3199,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3092,13 +3214,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B73" s="1">
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3107,13 +3229,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B74" s="1">
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3122,13 +3244,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B75" s="1">
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3137,13 +3259,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B76" s="1">
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3152,13 +3274,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B77" s="1">
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3167,13 +3289,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B78" s="1">
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3182,13 +3304,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3197,13 +3319,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3212,13 +3334,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3227,13 +3349,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B82" s="1">
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3242,13 +3364,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B83" s="1">
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3257,13 +3379,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B84" s="1">
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3272,13 +3394,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B85" s="1">
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3287,13 +3409,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B86" s="1">
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3302,13 +3424,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B87" s="1">
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3317,13 +3439,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B88" s="1">
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3332,13 +3454,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B89" s="1">
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3347,13 +3469,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B90" s="1">
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3362,13 +3484,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3377,13 +3499,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3392,13 +3514,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B93" s="1">
         <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3407,7 +3529,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B94" s="1">
         <v>2</v>
@@ -3424,16 +3546,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B95" s="1">
         <v>2</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -3441,16 +3563,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B96" s="1">
         <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -3458,16 +3580,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B97" s="1">
         <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -3475,16 +3597,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B98" s="1">
         <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -3492,16 +3614,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B99" s="1">
         <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -3509,16 +3631,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B100" s="1">
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -3526,16 +3648,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B101" s="1">
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -3543,28 +3665,30 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B102" s="1">
         <v>2</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B103" s="1">
         <v>2</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3573,13 +3697,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B104" s="1">
         <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3588,13 +3712,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3603,13 +3727,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B106" s="1">
         <v>2</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3618,13 +3742,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B107" s="1">
         <v>2</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3633,13 +3757,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B108" s="1">
         <v>2</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3648,13 +3772,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B109" s="1">
         <v>2</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3663,13 +3787,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B110" s="1">
         <v>2</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3678,13 +3802,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B111" s="1">
         <v>2</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -3693,13 +3817,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B112" s="1">
         <v>2</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3708,13 +3832,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B113" s="1">
         <v>2</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -3723,13 +3847,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B114" s="1">
         <v>2</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -3738,13 +3862,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B115" s="1">
         <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3753,13 +3877,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B116" s="1">
         <v>2</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -3768,13 +3892,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B117" s="1">
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3783,13 +3907,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B118" s="1">
         <v>2</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3798,30 +3922,30 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B119" s="1">
         <v>2</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B120" s="1">
         <v>2</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
